--- a/angel_ai/math_problems/new_problems_Problems.xlsx
+++ b/angel_ai/math_problems/new_problems_Problems.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,23 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What is 2 + 2?</t>
+          <t>Solve for x: 15x = 75</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What is the square root of 16?</t>
+          <t>Solve for x: 5x - 2 = 13</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -526,22 +526,147 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What is 10 / 2?</t>
+          <t>Solve for x: 4x + 6 = 18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solve for x: 6x = 42</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solve for x: 3x + 5 = 14</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Solve for x: 6x - 9 = 15</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solve for x: 4x + 5 = 2x + 11</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solve for x: 6x + 3 = 4x + 9</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
     </row>
